--- a/img-size-calculator.xlsx
+++ b/img-size-calculator.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="347">
   <si>
     <t>feed</t>
   </si>
@@ -1059,6 +1059,9 @@
   </si>
   <si>
     <t>(full width, eg background)</t>
+  </si>
+  <si>
+    <t>news-gallery</t>
   </si>
 </sst>
 </file>
@@ -1416,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W38"/>
+  <dimension ref="B2:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,7 +1444,7 @@
     <col min="23" max="23" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>332</v>
       </c>
@@ -1463,8 +1466,11 @@
       <c r="S2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y2" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1483,8 +1489,11 @@
       <c r="S3">
         <v>482</v>
       </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1503,8 +1512,11 @@
       <c r="S4">
         <v>400</v>
       </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1523,8 +1535,11 @@
       <c r="S5">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1543,8 +1558,11 @@
       <c r="S6">
         <v>544</v>
       </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1563,8 +1581,11 @@
       <c r="S7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>336</v>
       </c>
@@ -1586,11 +1607,19 @@
         <v>0</v>
       </c>
       <c r="T10" s="6">
-        <f>MATCH(S10,$B$2:$W$2,0)</f>
+        <f>MATCH(S10,$B$2:S$2,0)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y10" s="3" t="str">
+        <f>Y2</f>
+        <v>news-gallery</v>
+      </c>
+      <c r="Z10" s="6">
+        <f>MATCH(Y10,$B$2:Y$2,0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>333</v>
       </c>
@@ -1648,8 +1677,23 @@
       <c r="W11" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -1701,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" ref="S12:S28" si="6">VLOOKUP($B12,$B$3:$S$7,T$10,FALSE)</f>
+        <f>VLOOKUP($B12,$B$3:S$7,T$10,FALSE)</f>
         <v>482</v>
       </c>
       <c r="T12">
@@ -1719,8 +1763,27 @@
         <f>U12=V12</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y12" s="2">
+        <f>VLOOKUP($B12,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>350</v>
+      </c>
+      <c r="Z12">
+        <f>IF(Y12&lt;=1,Y12*$C12,Y12)</f>
+        <v>350</v>
+      </c>
+      <c r="AA12">
+        <f>Z12*$D12</f>
+        <v>350</v>
+      </c>
+      <c r="AB12">
+        <v>384</v>
+      </c>
+      <c r="AC12" t="b">
+        <f>AA12=AB12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -1757,7 +1820,7 @@
         <v>1165</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:N28" si="7">IF(M13&lt;=1,M13*$C13,M13)</f>
+        <f t="shared" ref="N13:N28" si="6">IF(M13&lt;=1,M13*$C13,M13)</f>
         <v>1165</v>
       </c>
       <c r="O13">
@@ -1768,30 +1831,49 @@
         <v>2330</v>
       </c>
       <c r="Q13" t="b">
-        <f t="shared" ref="Q13:Q28" si="8">O13=P13</f>
+        <f t="shared" ref="Q13:Q28" si="7">O13=P13</f>
         <v>1</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP($B13,$B$3:S$7,T$10,FALSE)</f>
         <v>482</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:T28" si="9">IF(S13&lt;=1,S13*$C13,S13)</f>
+        <f t="shared" ref="T13:T28" si="8">IF(S13&lt;=1,S13*$C13,S13)</f>
         <v>482</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13:U28" si="10">T13*$D13</f>
+        <f t="shared" ref="U13:U28" si="9">T13*$D13</f>
         <v>964</v>
       </c>
       <c r="V13">
         <v>1088</v>
       </c>
       <c r="W13" t="b">
-        <f t="shared" ref="W13:W28" si="11">U13=V13</f>
+        <f t="shared" ref="W13:W28" si="10">U13=V13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y13" s="2">
+        <f>VLOOKUP($B13,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>350</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ref="Z13:Z28" si="11">IF(Y13&lt;=1,Y13*$C13,Y13)</f>
+        <v>350</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" ref="AA13:AA28" si="12">Z13*$D13</f>
+        <v>700</v>
+      </c>
+      <c r="AB13">
+        <v>700</v>
+      </c>
+      <c r="AC13" t="b">
+        <f t="shared" ref="AC13:AC28" si="13">AA13=AB13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -1828,7 +1910,7 @@
         <v>1165</v>
       </c>
       <c r="N14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1165</v>
       </c>
       <c r="O14">
@@ -1839,30 +1921,49 @@
         <v>1165</v>
       </c>
       <c r="Q14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <f>VLOOKUP($B14,$B$3:S$7,T$10,FALSE)</f>
+        <v>482</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="2">
-        <f t="shared" si="6"/>
         <v>482</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="9"/>
         <v>482</v>
       </c>
-      <c r="U14">
-        <f t="shared" si="10"/>
-        <v>482</v>
-      </c>
       <c r="V14">
         <v>482</v>
       </c>
       <c r="W14" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2">
+        <f>VLOOKUP($B14,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>350</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="AB14">
+        <v>384</v>
+      </c>
+      <c r="AC14" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -1899,7 +2000,7 @@
         <v>1165</v>
       </c>
       <c r="N15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1165</v>
       </c>
       <c r="O15">
@@ -1910,30 +2011,49 @@
         <v>1165</v>
       </c>
       <c r="Q15" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
+        <f>VLOOKUP($B15,$B$3:S$7,T$10,FALSE)</f>
+        <v>482</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S15" s="2">
-        <f t="shared" si="6"/>
         <v>482</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f t="shared" si="9"/>
         <v>482</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="10"/>
-        <v>482</v>
-      </c>
       <c r="V15">
         <v>482</v>
       </c>
       <c r="W15" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>VLOOKUP($B15,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>350</v>
+      </c>
+      <c r="Z15">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="AB15">
+        <v>384</v>
+      </c>
+      <c r="AC15" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -1970,7 +2090,7 @@
         <v>1165</v>
       </c>
       <c r="N16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1165</v>
       </c>
       <c r="O16">
@@ -1981,30 +2101,49 @@
         <v>1165</v>
       </c>
       <c r="Q16" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <f>VLOOKUP($B16,$B$3:S$7,T$10,FALSE)</f>
+        <v>482</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S16" s="2">
-        <f t="shared" si="6"/>
         <v>482</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f t="shared" si="9"/>
         <v>482</v>
       </c>
-      <c r="U16">
-        <f t="shared" si="10"/>
-        <v>482</v>
-      </c>
       <c r="V16">
         <v>482</v>
       </c>
       <c r="W16" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>VLOOKUP($B16,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>350</v>
+      </c>
+      <c r="Z16">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="AB16">
+        <v>384</v>
+      </c>
+      <c r="AC16" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -2041,7 +2180,7 @@
         <v>1165</v>
       </c>
       <c r="N17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1165</v>
       </c>
       <c r="O17">
@@ -2052,30 +2191,49 @@
         <v>1165</v>
       </c>
       <c r="Q17" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="2">
+        <f>VLOOKUP($B17,$B$3:S$7,T$10,FALSE)</f>
+        <v>482</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S17" s="2">
-        <f t="shared" si="6"/>
         <v>482</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f t="shared" si="9"/>
         <v>482</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="10"/>
-        <v>482</v>
-      </c>
       <c r="V17">
         <v>482</v>
       </c>
       <c r="W17" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="2">
+        <f>VLOOKUP($B17,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>350</v>
+      </c>
+      <c r="Z17">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="AB17">
+        <v>384</v>
+      </c>
+      <c r="AC17" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -2112,7 +2270,7 @@
         <v>1165</v>
       </c>
       <c r="N18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1165</v>
       </c>
       <c r="O18">
@@ -2123,30 +2281,49 @@
         <v>1920</v>
       </c>
       <c r="Q18" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <f>VLOOKUP($B18,$B$3:S$7,T$10,FALSE)</f>
+        <v>482</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <f t="shared" si="6"/>
         <v>482</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f t="shared" si="9"/>
-        <v>482</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="10"/>
         <v>964</v>
       </c>
       <c r="V18">
         <v>1088</v>
       </c>
       <c r="W18" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <f>VLOOKUP($B18,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>350</v>
+      </c>
+      <c r="Z18">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+      <c r="AB18">
+        <v>700</v>
+      </c>
+      <c r="AC18" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -2183,7 +2360,7 @@
         <v>960</v>
       </c>
       <c r="N19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>960</v>
       </c>
       <c r="O19">
@@ -2194,30 +2371,49 @@
         <v>960</v>
       </c>
       <c r="Q19" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
+        <f>VLOOKUP($B19,$B$3:S$7,T$10,FALSE)</f>
+        <v>400</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="2">
-        <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="10"/>
-        <v>400</v>
-      </c>
       <c r="V19">
         <v>400</v>
       </c>
       <c r="W19" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="2">
+        <f>VLOOKUP($B19,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>384</v>
+      </c>
+      <c r="Z19">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="12"/>
+        <v>384</v>
+      </c>
+      <c r="AB19">
+        <v>384</v>
+      </c>
+      <c r="AC19" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -2254,7 +2450,7 @@
         <v>720</v>
       </c>
       <c r="N20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="O20">
@@ -2265,30 +2461,49 @@
         <v>1440</v>
       </c>
       <c r="Q20" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <f>VLOOKUP($B20,$B$3:S$7,T$10,FALSE)</f>
+        <v>300</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="2">
-        <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f t="shared" si="9"/>
-        <v>300</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="10"/>
         <v>600</v>
       </c>
       <c r="V20">
         <v>600</v>
       </c>
       <c r="W20" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2">
+        <f>VLOOKUP($B20,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>430</v>
+      </c>
+      <c r="Z20">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="12"/>
+        <v>860</v>
+      </c>
+      <c r="AB20">
+        <v>860</v>
+      </c>
+      <c r="AC20" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -2325,7 +2540,7 @@
         <v>544</v>
       </c>
       <c r="N21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>544</v>
       </c>
       <c r="O21">
@@ -2336,30 +2551,49 @@
         <v>1088</v>
       </c>
       <c r="Q21" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
+        <f>VLOOKUP($B21,$B$3:S$7,T$10,FALSE)</f>
+        <v>544</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="2">
-        <f t="shared" si="6"/>
         <v>544</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f t="shared" si="9"/>
-        <v>544</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="10"/>
         <v>1088</v>
       </c>
       <c r="V21">
         <v>1088</v>
       </c>
       <c r="W21" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="2">
+        <f>VLOOKUP($B21,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>646</v>
+      </c>
+      <c r="Z21">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="12"/>
+        <v>1292</v>
+      </c>
+      <c r="AB21">
+        <v>1292</v>
+      </c>
+      <c r="AC21" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -2396,7 +2630,7 @@
         <v>544</v>
       </c>
       <c r="N22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>544</v>
       </c>
       <c r="O22">
@@ -2407,30 +2641,49 @@
         <v>1088</v>
       </c>
       <c r="Q22" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="2">
+        <f>VLOOKUP($B22,$B$3:S$7,T$10,FALSE)</f>
+        <v>544</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="2">
-        <f t="shared" si="6"/>
         <v>544</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f t="shared" si="9"/>
-        <v>544</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="10"/>
         <v>1088</v>
       </c>
       <c r="V22">
         <v>1088</v>
       </c>
       <c r="W22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="2">
+        <f>VLOOKUP($B22,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>646</v>
+      </c>
+      <c r="Z22">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="12"/>
+        <v>1292</v>
+      </c>
+      <c r="AB22">
+        <v>1292</v>
+      </c>
+      <c r="AC22" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2467,7 +2720,7 @@
         <v>544</v>
       </c>
       <c r="N23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>544</v>
       </c>
       <c r="O23">
@@ -2478,30 +2731,49 @@
         <v>1088</v>
       </c>
       <c r="Q23" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S23" s="2">
+        <f>VLOOKUP($B23,$B$3:S$7,T$10,FALSE)</f>
+        <v>544</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S23" s="2">
-        <f t="shared" si="6"/>
         <v>544</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="9"/>
-        <v>544</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="10"/>
         <v>1088</v>
       </c>
       <c r="V23">
         <v>1088</v>
       </c>
       <c r="W23" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="2">
+        <f>VLOOKUP($B23,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>646</v>
+      </c>
+      <c r="Z23">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="12"/>
+        <v>1292</v>
+      </c>
+      <c r="AB23">
+        <v>1292</v>
+      </c>
+      <c r="AC23" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>5</v>
       </c>
@@ -2538,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>540</v>
       </c>
       <c r="O24">
@@ -2549,30 +2821,49 @@
         <v>1088</v>
       </c>
       <c r="Q24" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <f>VLOOKUP($B24,$B$3:S$7,T$10,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T24">
+        <v>540</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="9"/>
-        <v>540</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="10"/>
         <v>1080</v>
       </c>
       <c r="V24">
         <v>1088</v>
       </c>
       <c r="W24" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <f>VLOOKUP($B24,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>646</v>
+      </c>
+      <c r="Z24">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="12"/>
+        <v>1292</v>
+      </c>
+      <c r="AB24">
+        <v>1292</v>
+      </c>
+      <c r="AC24" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>5</v>
       </c>
@@ -2601,7 +2892,7 @@
         <v>1600</v>
       </c>
       <c r="K25" t="b">
-        <f t="shared" ref="K25" si="12">I25=J25</f>
+        <f t="shared" ref="K25" si="14">I25=J25</f>
         <v>0</v>
       </c>
       <c r="M25" s="2">
@@ -2609,41 +2900,60 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25" si="13">N25*$D25</f>
+        <f t="shared" ref="O25" si="15">N25*$D25</f>
         <v>1440</v>
       </c>
       <c r="P25">
         <v>1600</v>
       </c>
       <c r="Q25" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <f>VLOOKUP($B25,$B$3:S$7,T$10,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T25">
+        <v>480</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="9"/>
-        <v>480</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="10"/>
         <v>1440</v>
       </c>
       <c r="V25">
         <v>1600</v>
       </c>
       <c r="W25" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <f>VLOOKUP($B25,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>646</v>
+      </c>
+      <c r="Z25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="12"/>
+        <v>1938</v>
+      </c>
+      <c r="AB25">
+        <v>1938</v>
+      </c>
+      <c r="AC25" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>5</v>
       </c>
@@ -2680,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="O26">
@@ -2691,30 +3001,49 @@
         <v>960</v>
       </c>
       <c r="Q26" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S26" s="2">
+        <f>VLOOKUP($B26,$B$3:S$7,T$10,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S26" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T26">
+        <v>480</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="9"/>
-        <v>480</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="10"/>
         <v>960</v>
       </c>
       <c r="V26">
         <v>960</v>
       </c>
       <c r="W26" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="2">
+        <f>VLOOKUP($B26,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>646</v>
+      </c>
+      <c r="Z26">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="12"/>
+        <v>1292</v>
+      </c>
+      <c r="AB26">
+        <v>1292</v>
+      </c>
+      <c r="AC26" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -2751,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="O27">
@@ -2762,30 +3091,49 @@
         <v>640</v>
       </c>
       <c r="Q27" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S27" s="2">
+        <f>VLOOKUP($B27,$B$3:S$7,T$10,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S27" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T27">
+        <v>320</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="9"/>
-        <v>320</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="10"/>
         <v>640</v>
       </c>
       <c r="V27">
         <v>640</v>
       </c>
       <c r="W27" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="2">
+        <f>VLOOKUP($B27,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>646</v>
+      </c>
+      <c r="Z27">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="12"/>
+        <v>1292</v>
+      </c>
+      <c r="AB27">
+        <v>1292</v>
+      </c>
+      <c r="AC27" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -2822,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="O28">
@@ -2833,30 +3181,49 @@
         <v>960</v>
       </c>
       <c r="Q28" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="2">
+        <f>VLOOKUP($B28,$B$3:S$7,T$10,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S28" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T28">
+        <v>320</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="9"/>
-        <v>320</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="10"/>
         <v>960</v>
       </c>
       <c r="V28">
         <v>960</v>
       </c>
       <c r="W28" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="2">
+        <f>VLOOKUP($B28,$B$3:Y$7,Z$10,FALSE)</f>
+        <v>646</v>
+      </c>
+      <c r="Z28">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="12"/>
+        <v>1938</v>
+      </c>
+      <c r="AB28">
+        <v>1938</v>
+      </c>
+      <c r="AC28" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="J30" s="3" t="s">
         <v>342</v>
       </c>
@@ -2866,8 +3233,11 @@
       <c r="V30" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB30" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="J31">
         <v>640</v>
       </c>
@@ -2889,158 +3259,193 @@
         <f>"'"&amp;V31&amp;"w', "</f>
         <v xml:space="preserve">'400w', </v>
       </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB31">
+        <v>384</v>
+      </c>
+      <c r="AC31" t="str">
+        <f>"'"&amp;AB31&amp;"w', "</f>
+        <v xml:space="preserve">'384w', </v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="J32">
         <v>960</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" ref="K32:K38" si="14">"'"&amp;J32&amp;"w', "</f>
+        <f t="shared" ref="K32:K38" si="16">"'"&amp;J32&amp;"w', "</f>
         <v xml:space="preserve">'960w', </v>
       </c>
       <c r="P32">
         <v>960</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" ref="Q32:Q38" si="15">"'"&amp;P32&amp;"w', "</f>
+        <f t="shared" ref="Q32:Q38" si="17">"'"&amp;P32&amp;"w', "</f>
         <v xml:space="preserve">'960w', </v>
       </c>
       <c r="V32">
         <v>482</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" ref="W32:W37" si="16">"'"&amp;V32&amp;"w', "</f>
+        <f t="shared" ref="W32:W37" si="18">"'"&amp;V32&amp;"w', "</f>
         <v xml:space="preserve">'482w', </v>
       </c>
-    </row>
-    <row r="33" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="AB32">
+        <v>700</v>
+      </c>
+      <c r="AC32" t="str">
+        <f t="shared" ref="AC32:AC37" si="19">"'"&amp;AB32&amp;"w', "</f>
+        <v xml:space="preserve">'700w', </v>
+      </c>
+    </row>
+    <row r="33" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J33">
         <v>1080</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">'1080w', </v>
       </c>
       <c r="P33">
         <v>1088</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">'1088w', </v>
       </c>
       <c r="V33">
         <v>600</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">'600w', </v>
       </c>
-    </row>
-    <row r="34" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="AB33">
+        <v>860</v>
+      </c>
+      <c r="AC33" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">'860w', </v>
+      </c>
+    </row>
+    <row r="34" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J34">
         <v>1280</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">'1280w', </v>
       </c>
       <c r="P34">
         <v>1165</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">'1165w', </v>
       </c>
       <c r="V34">
         <v>640</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">'640w', </v>
       </c>
-    </row>
-    <row r="35" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="AB34">
+        <v>1292</v>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">'1292w', </v>
+      </c>
+    </row>
+    <row r="35" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J35">
         <v>1366</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">'1366w', </v>
       </c>
       <c r="P35">
         <v>1440</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">'1440w', </v>
       </c>
       <c r="V35">
         <v>960</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">'960w', </v>
       </c>
-    </row>
-    <row r="36" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="AB35">
+        <v>1938</v>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">'1938w', </v>
+      </c>
+    </row>
+    <row r="36" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J36">
         <v>1600</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">'1600w', </v>
       </c>
       <c r="P36">
         <v>1600</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">'1600w', </v>
       </c>
       <c r="V36">
         <v>1088</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">'1088w', </v>
       </c>
     </row>
-    <row r="37" spans="10:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J37">
         <v>1920</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">'1920w', </v>
       </c>
       <c r="P37">
         <v>1920</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">'1920w', </v>
       </c>
       <c r="V37">
         <v>1600</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">'1600w', </v>
       </c>
     </row>
-    <row r="38" spans="10:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J38">
         <v>2880</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">'2880w', </v>
       </c>
       <c r="P38">
         <v>2330</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">'2330w', </v>
       </c>
     </row>
@@ -7090,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <f t="shared" ref="G130:G161" si="13">B130*F130</f>
+        <f t="shared" ref="G130:G155" si="13">B130*F130</f>
         <v>1536</v>
       </c>
       <c r="H130">
@@ -10769,7 +11174,7 @@
         <v>2</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" ref="I99:I130" si="11">E99/H99</f>
+        <f t="shared" ref="I99:I104" si="11">E99/H99</f>
         <v>320</v>
       </c>
     </row>
@@ -12107,7 +12512,7 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C97" si="4">A66*MAX(B66,1)</f>
+        <f t="shared" ref="C66:C96" si="4">A66*MAX(B66,1)</f>
         <v>1440</v>
       </c>
       <c r="E66">
